--- a/error_rankings/ccner/pure_noise_full_prompts_small_models_error_category_ranking.xlsx
+++ b/error_rankings/ccner/pure_noise_full_prompts_small_models_error_category_ranking.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CLIMATE-IMPACТS</t>
+          <t>CLIMATE-PROBLEMS</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CLIMATE-PROBLEMS</t>
+          <t>CLIMATE-IMPACТS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -542,8 +542,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>6</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CLIMATE-ORGANIZATIONS is incorrect it should be none because Beijing is a location hence no tag</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>0.08333333333333333</v>
@@ -568,7 +570,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CLIMATE-ORGANIZATIONS is incorrect it should be none because Beijing is a location hence no tag</t>
+          <t>CLIMATE-PROPERTY</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -581,7 +583,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CLIMATE-PROPERTY</t>
+          <t>CLIMATE-RESEARCH</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -594,7 +596,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CLIMATE-RESEARCH</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -607,7 +609,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>no label</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -620,26 +622,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>no label</t>
+          <t>not a predefined category</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0.08333333333333333</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>not a predefined category</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="C16" t="n">
         <v>4</v>
       </c>
     </row>
